--- a/Input/ReadIn_RSS04.xlsx
+++ b/Input/ReadIn_RSS04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kth-my.sharepoint.com/personal/minht_ug_kth_se/Documents/C3D computation/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\magistrale\3-4_Thesis\GitHub_thesis\C3D_computation\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_D354F1C70B6B5C9D76FDC326F7012D16C18E12D9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8974959F-964C-4897-9A78-5505CD00B8A6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7F8C64-82AE-4830-BE80-B9B3C7C7A42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Filenames</t>
   </si>
@@ -40,18 +40,6 @@
     <t>RSS04gait06.c3d</t>
   </si>
   <si>
-    <t>S40gait01.c3d</t>
-  </si>
-  <si>
-    <t>S40gait02.c3d</t>
-  </si>
-  <si>
-    <t>S40gait03.c3d</t>
-  </si>
-  <si>
-    <t>S40gait04.c3d</t>
-  </si>
-  <si>
     <t>LKin1</t>
   </si>
   <si>
@@ -98,9 +86,6 @@
   </si>
   <si>
     <t>RSS04</t>
-  </si>
-  <si>
-    <t>S40</t>
   </si>
 </sst>
 </file>
@@ -137,7 +122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -153,7 +138,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -449,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="A7" sqref="A7:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -470,46 +455,46 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -517,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -556,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -564,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -603,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -611,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -650,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -658,7 +643,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -697,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -705,7 +690,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -744,195 +729,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
